--- a/Tstats_nmast.xlsx
+++ b/Tstats_nmast.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="298">
   <si>
     <t>OriginalVariableNames</t>
   </si>
@@ -158,6 +158,785 @@
   </si>
   <si>
     <t>18 ± 9</t>
+  </si>
+  <si>
+    <t>OriginalVariableNames</t>
+  </si>
+  <si>
+    <t>Julian Day of Year</t>
+  </si>
+  <si>
+    <t>Recording Sessions</t>
+  </si>
+  <si>
+    <t>Unique Squirrels</t>
+  </si>
+  <si>
+    <t>Day Length (hrs)</t>
+  </si>
+  <si>
+    <t>QB per day (hrs)</t>
+  </si>
+  <si>
+    <t>QB in daylight (hrs)</t>
+  </si>
+  <si>
+    <t>QB in daylight (%)</t>
+  </si>
+  <si>
+    <t>QB in darkness (hrs)</t>
+  </si>
+  <si>
+    <t>QB in darkness (%)</t>
+  </si>
+  <si>
+    <t>Total QB transitions</t>
+  </si>
+  <si>
+    <t>QB transitions in daylight</t>
+  </si>
+  <si>
+    <t>QB transitions per-hour daylight</t>
+  </si>
+  <si>
+    <t>QB transitions in darkness</t>
+  </si>
+  <si>
+    <t>QB transitions per-hour darkness</t>
+  </si>
+  <si>
+    <t>Winter</t>
+  </si>
+  <si>
+    <t>311-35</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>6.55 ± 0.79</t>
+  </si>
+  <si>
+    <t>NaN ± NaN</t>
+  </si>
+  <si>
+    <t>NaN% ± NaN%</t>
+  </si>
+  <si>
+    <t>NaN ± NaN</t>
+  </si>
+  <si>
+    <t>NaN% ± NaN%</t>
+  </si>
+  <si>
+    <t>NaN ± NaN</t>
+  </si>
+  <si>
+    <t>NaN ± NaN
+</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>36-127</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>12.44 ± 2.52</t>
+  </si>
+  <si>
+    <t>12.09 ± 2.06</t>
+  </si>
+  <si>
+    <t>3.37 ± 1.37</t>
+  </si>
+  <si>
+    <t>27% ± 11%</t>
+  </si>
+  <si>
+    <t>8.72 ± 2.23</t>
+  </si>
+  <si>
+    <t>75% ± 19%</t>
+  </si>
+  <si>
+    <t>344 ± 87</t>
+  </si>
+  <si>
+    <t>117 ± 48</t>
+  </si>
+  <si>
+    <t>9 ± 4</t>
+  </si>
+  <si>
+    <t>227 ± 78
+</t>
+  </si>
+  <si>
+    <t>20 ± 7
+</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>128-218</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>18.21 ± 0.81</t>
+  </si>
+  <si>
+    <t>13.36 ± 3.30</t>
+  </si>
+  <si>
+    <t>8.78 ± 2.94</t>
+  </si>
+  <si>
+    <t>48% ± 16%</t>
+  </si>
+  <si>
+    <t>4.58 ± 0.82</t>
+  </si>
+  <si>
+    <t>79% ± 14%</t>
+  </si>
+  <si>
+    <t>312 ± 58</t>
+  </si>
+  <si>
+    <t>244 ± 65</t>
+  </si>
+  <si>
+    <t>13 ± 4</t>
+  </si>
+  <si>
+    <t>68 ± 39
+</t>
+  </si>
+  <si>
+    <t>12 ± 7
+</t>
+  </si>
+  <si>
+    <t>Autumn</t>
+  </si>
+  <si>
+    <t>219-309</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>12.37 ± 2.47</t>
+  </si>
+  <si>
+    <t>10.78 ± 3.99</t>
+  </si>
+  <si>
+    <t>2.96 ± 3.29</t>
+  </si>
+  <si>
+    <t>24% ± 27%</t>
+  </si>
+  <si>
+    <t>7.82 ± 1.46</t>
+  </si>
+  <si>
+    <t>67% ± 13%</t>
+  </si>
+  <si>
+    <t>274 ± 83</t>
+  </si>
+  <si>
+    <t>126 ± 117</t>
+  </si>
+  <si>
+    <t>10 ± 9</t>
+  </si>
+  <si>
+    <t>149 ± 72
+</t>
+  </si>
+  <si>
+    <t>13 ± 6
+</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>1-366</t>
+  </si>
+  <si>
+    <t>345</t>
+  </si>
+  <si>
+    <t>12.38 ± 4.52</t>
+  </si>
+  <si>
+    <t>12.47 ± 3.44</t>
+  </si>
+  <si>
+    <t>6.23 ± 3.95</t>
+  </si>
+  <si>
+    <t>50% ± 32%</t>
+  </si>
+  <si>
+    <t>6.24 ± 2.31</t>
+  </si>
+  <si>
+    <t>54% ± 20%</t>
+  </si>
+  <si>
+    <t>310 ± 75</t>
+  </si>
+  <si>
+    <t>189 ± 99</t>
+  </si>
+  <si>
+    <t>15 ± 8</t>
+  </si>
+  <si>
+    <t>121 ± 87</t>
+  </si>
+  <si>
+    <t>10 ± 7
+</t>
+  </si>
+  <si>
+    <t>OriginalVariableNames</t>
+  </si>
+  <si>
+    <t>Julian Day of Year</t>
+  </si>
+  <si>
+    <t>Recording Sessions</t>
+  </si>
+  <si>
+    <t>Unique Squirrels</t>
+  </si>
+  <si>
+    <t>Day Length (hrs)</t>
+  </si>
+  <si>
+    <t>QB per day (hrs)</t>
+  </si>
+  <si>
+    <t>QB in daylight (hrs)</t>
+  </si>
+  <si>
+    <t>QB in daylight (%)</t>
+  </si>
+  <si>
+    <t>QB in darkness (hrs)</t>
+  </si>
+  <si>
+    <t>QB in darkness (%)</t>
+  </si>
+  <si>
+    <t>Total QB transitions</t>
+  </si>
+  <si>
+    <t>QB transitions in daylight</t>
+  </si>
+  <si>
+    <t>QB transitions per-hour daylight</t>
+  </si>
+  <si>
+    <t>QB transitions in darkness</t>
+  </si>
+  <si>
+    <t>QB transitions per-hour darkness</t>
+  </si>
+  <si>
+    <t>Winter</t>
+  </si>
+  <si>
+    <t>311-35</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>6.55 ± 0.79</t>
+  </si>
+  <si>
+    <t>19.24 ± 1.44</t>
+  </si>
+  <si>
+    <t>3.82 ± 0.96</t>
+  </si>
+  <si>
+    <t>58% ± 15%</t>
+  </si>
+  <si>
+    <t>15.42 ± 1.19</t>
+  </si>
+  <si>
+    <t>88% ± 7%</t>
+  </si>
+  <si>
+    <t>210 ± 47</t>
+  </si>
+  <si>
+    <t>85 ± 25</t>
+  </si>
+  <si>
+    <t>13 ± 4</t>
+  </si>
+  <si>
+    <t>125 ± 46
+</t>
+  </si>
+  <si>
+    <t>7 ± 3
+</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>36-127</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>12.44 ± 2.52</t>
+  </si>
+  <si>
+    <t>17.65 ± 3.01</t>
+  </si>
+  <si>
+    <t>6.55 ± 2.18</t>
+  </si>
+  <si>
+    <t>53% ± 18%</t>
+  </si>
+  <si>
+    <t>11.10 ± 2.54</t>
+  </si>
+  <si>
+    <t>96% ± 22%</t>
+  </si>
+  <si>
+    <t>239 ± 53</t>
+  </si>
+  <si>
+    <t>163 ± 52</t>
+  </si>
+  <si>
+    <t>13 ± 4</t>
+  </si>
+  <si>
+    <t>76 ± 34
+</t>
+  </si>
+  <si>
+    <t>7 ± 3
+</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>128-218</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>18.21 ± 0.81</t>
+  </si>
+  <si>
+    <t>14.63 ± 1.77</t>
+  </si>
+  <si>
+    <t>9.07 ± 1.88</t>
+  </si>
+  <si>
+    <t>50% ± 10%</t>
+  </si>
+  <si>
+    <t>5.56 ± 0.75</t>
+  </si>
+  <si>
+    <t>96% ± 13%</t>
+  </si>
+  <si>
+    <t>282 ± 43</t>
+  </si>
+  <si>
+    <t>245 ± 41</t>
+  </si>
+  <si>
+    <t>13 ± 2</t>
+  </si>
+  <si>
+    <t>37 ± 13
+</t>
+  </si>
+  <si>
+    <t>6 ± 2
+</t>
+  </si>
+  <si>
+    <t>Autumn</t>
+  </si>
+  <si>
+    <t>219-309</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>12.37 ± 2.47</t>
+  </si>
+  <si>
+    <t>14.58 ± 1.67</t>
+  </si>
+  <si>
+    <t>5.44 ± 1.63</t>
+  </si>
+  <si>
+    <t>44% ± 13%</t>
+  </si>
+  <si>
+    <t>9.14 ± 1.05</t>
+  </si>
+  <si>
+    <t>79% ± 9%</t>
+  </si>
+  <si>
+    <t>235 ± 40</t>
+  </si>
+  <si>
+    <t>170 ± 35</t>
+  </si>
+  <si>
+    <t>14 ± 3</t>
+  </si>
+  <si>
+    <t>66 ± 21
+</t>
+  </si>
+  <si>
+    <t>6 ± 2
+</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>1-366</t>
+  </si>
+  <si>
+    <t>345</t>
+  </si>
+  <si>
+    <t>12.38 ± 4.52</t>
+  </si>
+  <si>
+    <t>17.74 ± 2.71</t>
+  </si>
+  <si>
+    <t>4.99 ± 2.13</t>
+  </si>
+  <si>
+    <t>40% ± 17%</t>
+  </si>
+  <si>
+    <t>12.76 ± 3.58</t>
+  </si>
+  <si>
+    <t>110% ± 31%</t>
+  </si>
+  <si>
+    <t>225 ± 51</t>
+  </si>
+  <si>
+    <t>126 ± 61</t>
+  </si>
+  <si>
+    <t>10 ± 5</t>
+  </si>
+  <si>
+    <t>99 ± 50</t>
+  </si>
+  <si>
+    <t>9 ± 4
+</t>
+  </si>
+  <si>
+    <t>OriginalVariableNames</t>
+  </si>
+  <si>
+    <t>Julian Day of Year</t>
+  </si>
+  <si>
+    <t>Recording Sessions</t>
+  </si>
+  <si>
+    <t>Unique Squirrels</t>
+  </si>
+  <si>
+    <t>Day Length (hrs)</t>
+  </si>
+  <si>
+    <t>QB per day (hrs)</t>
+  </si>
+  <si>
+    <t>QB in daylight (hrs)</t>
+  </si>
+  <si>
+    <t>QB in daylight (%)</t>
+  </si>
+  <si>
+    <t>QB in darkness (hrs)</t>
+  </si>
+  <si>
+    <t>QB in darkness (%)</t>
+  </si>
+  <si>
+    <t>Total QB transitions</t>
+  </si>
+  <si>
+    <t>QB transitions in daylight</t>
+  </si>
+  <si>
+    <t>QB transitions per-hour daylight</t>
+  </si>
+  <si>
+    <t>QB transitions in darkness</t>
+  </si>
+  <si>
+    <t>QB transitions per-hour darkness</t>
+  </si>
+  <si>
+    <t>Winter</t>
+  </si>
+  <si>
+    <t>311-35</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>6.55 ± 0.79</t>
+  </si>
+  <si>
+    <t>19.91 ± 1.13</t>
+  </si>
+  <si>
+    <t>4.07 ± 0.88</t>
+  </si>
+  <si>
+    <t>62% ± 13%</t>
+  </si>
+  <si>
+    <t>15.84 ± 1.03</t>
+  </si>
+  <si>
+    <t>91% ± 6%</t>
+  </si>
+  <si>
+    <t>195 ± 37</t>
+  </si>
+  <si>
+    <t>89 ± 28</t>
+  </si>
+  <si>
+    <t>14 ± 4</t>
+  </si>
+  <si>
+    <t>107 ± 29
+</t>
+  </si>
+  <si>
+    <t>6 ± 2
+</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>36-127</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>12.44 ± 2.52</t>
+  </si>
+  <si>
+    <t>18.06 ± 2.62</t>
+  </si>
+  <si>
+    <t>6.85 ± 2.02</t>
+  </si>
+  <si>
+    <t>55% ± 16%</t>
+  </si>
+  <si>
+    <t>11.20 ± 2.53</t>
+  </si>
+  <si>
+    <t>97% ± 22%</t>
+  </si>
+  <si>
+    <t>248 ± 55</t>
+  </si>
+  <si>
+    <t>177 ± 57</t>
+  </si>
+  <si>
+    <t>14 ± 5</t>
+  </si>
+  <si>
+    <t>71 ± 30
+</t>
+  </si>
+  <si>
+    <t>6 ± 3
+</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>128-218</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>18.21 ± 0.81</t>
+  </si>
+  <si>
+    <t>15.57 ± 1.80</t>
+  </si>
+  <si>
+    <t>9.93 ± 1.95</t>
+  </si>
+  <si>
+    <t>55% ± 11%</t>
+  </si>
+  <si>
+    <t>5.63 ± 0.73</t>
+  </si>
+  <si>
+    <t>97% ± 13%</t>
+  </si>
+  <si>
+    <t>294 ± 40</t>
+  </si>
+  <si>
+    <t>262 ± 37</t>
+  </si>
+  <si>
+    <t>14 ± 2</t>
+  </si>
+  <si>
+    <t>32 ± 12
+</t>
+  </si>
+  <si>
+    <t>6 ± 2
+</t>
+  </si>
+  <si>
+    <t>Autumn</t>
+  </si>
+  <si>
+    <t>219-309</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>12.37 ± 2.47</t>
+  </si>
+  <si>
+    <t>15.01 ± 1.62</t>
+  </si>
+  <si>
+    <t>5.77 ± 1.57</t>
+  </si>
+  <si>
+    <t>47% ± 13%</t>
+  </si>
+  <si>
+    <t>9.24 ± 1.07</t>
+  </si>
+  <si>
+    <t>80% ± 9%</t>
+  </si>
+  <si>
+    <t>244 ± 40</t>
+  </si>
+  <si>
+    <t>183 ± 34</t>
+  </si>
+  <si>
+    <t>15 ± 3</t>
+  </si>
+  <si>
+    <t>61 ± 19
+</t>
+  </si>
+  <si>
+    <t>5 ± 2
+</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>1-366</t>
+  </si>
+  <si>
+    <t>345</t>
+  </si>
+  <si>
+    <t>12.38 ± 4.52</t>
+  </si>
+  <si>
+    <t>18.34 ± 2.59</t>
+  </si>
+  <si>
+    <t>5.30 ± 2.18</t>
+  </si>
+  <si>
+    <t>43% ± 18%</t>
+  </si>
+  <si>
+    <t>13.03 ± 3.69</t>
+  </si>
+  <si>
+    <t>112% ± 32%</t>
+  </si>
+  <si>
+    <t>221 ± 52</t>
+  </si>
+  <si>
+    <t>134 ± 67</t>
+  </si>
+  <si>
+    <t>11 ± 5</t>
+  </si>
+  <si>
+    <t>86 ± 36</t>
+  </si>
+  <si>
+    <t>7 ± 3
+</t>
   </si>
 </sst>
 </file>
@@ -178,7 +957,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -187,13 +966,19 @@
       <diagonal/>
     </border>
     <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -203,175 +988,315 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F15"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="true"/>
-    <col min="2" max="2" width="16.7109375" customWidth="true"/>
-    <col min="3" max="3" width="16.140625" customWidth="true"/>
-    <col min="4" max="4" width="17.7109375" customWidth="true"/>
-    <col min="5" max="5" width="17.7109375" customWidth="true"/>
-    <col min="6" max="6" width="10.140625" customWidth="true"/>
+    <col min="1" max="1" width="29.42578125" customWidth="true"/>
+    <col min="2" max="2" width="11.140625" customWidth="true"/>
+    <col min="3" max="3" width="11.140625" customWidth="true"/>
+    <col min="4" max="4" width="11.140625" customWidth="true"/>
+    <col min="5" max="5" width="11.140625" customWidth="true"/>
+    <col min="6" max="6" width="11.140625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>213</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>8</v>
+        <v>228</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>242</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>24</v>
+        <v>256</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>32</v>
+        <v>270</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>40</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>214</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>9</v>
+        <v>229</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>17</v>
+        <v>243</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>25</v>
+        <v>257</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="0">
-        <v>12</v>
+        <v>271</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>215</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>10</v>
+        <v>230</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>18</v>
+        <v>244</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>26</v>
+        <v>258</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>34</v>
+        <v>272</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>41</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>42</v>
+        <v>216</v>
+      </c>
+      <c r="B4" s="0">
+        <v>71</v>
+      </c>
+      <c r="C4" s="0">
+        <v>67</v>
+      </c>
+      <c r="D4" s="0">
+        <v>66</v>
+      </c>
+      <c r="E4" s="0">
+        <v>68</v>
+      </c>
+      <c r="F4" s="0">
+        <v>218</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>4</v>
+        <v>217</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>12</v>
+        <v>231</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>20</v>
+        <v>245</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>28</v>
+        <v>259</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>36</v>
+        <v>273</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>43</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>5</v>
+        <v>218</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>13</v>
+        <v>232</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>29</v>
+        <v>260</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>37</v>
+        <v>274</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>44</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>6</v>
+        <v>219</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>14</v>
+        <v>233</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>22</v>
+        <v>247</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>30</v>
+        <v>261</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>38</v>
+        <v>275</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>45</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>15</v>
+        <v>234</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>23</v>
+        <v>248</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>31</v>
+        <v>262</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>39</v>
+        <v>276</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>46</v>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>
